--- a/Code/Results/Cases/Case_2_64/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_64/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01491836401282</v>
+        <v>1.03813760682279</v>
       </c>
       <c r="D2">
-        <v>1.032856453311888</v>
+        <v>1.04602409703005</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.03369810464966</v>
+        <v>1.053209174464579</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048755296441016</v>
+        <v>1.039875682886958</v>
       </c>
       <c r="J2">
-        <v>1.036661844509936</v>
+        <v>1.043236676341394</v>
       </c>
       <c r="K2">
-        <v>1.043876263962946</v>
+        <v>1.04879069325474</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.044707115410868</v>
+        <v>1.055955775347891</v>
       </c>
       <c r="N2">
-        <v>1.038134023235916</v>
+        <v>1.044718192082718</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018871343549197</v>
+        <v>1.038973020341599</v>
       </c>
       <c r="D3">
-        <v>1.035912360510479</v>
+        <v>1.046696062996965</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.03742581495497</v>
+        <v>1.054056963333636</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049872105777137</v>
+        <v>1.040064517245126</v>
       </c>
       <c r="J3">
-        <v>1.038860450614903</v>
+        <v>1.043717330985942</v>
       </c>
       <c r="K3">
-        <v>1.046105465426943</v>
+        <v>1.049274581296542</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.047601213815925</v>
+        <v>1.056616474188697</v>
       </c>
       <c r="N3">
-        <v>1.040335751613735</v>
+        <v>1.045199529311993</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021380978242088</v>
+        <v>1.039514084641176</v>
       </c>
       <c r="D4">
-        <v>1.037855272045663</v>
+        <v>1.047131318117771</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.039797909159779</v>
+        <v>1.054606453087061</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050572751109884</v>
+        <v>1.040185771225529</v>
       </c>
       <c r="J4">
-        <v>1.040253130546346</v>
+        <v>1.04402817256683</v>
       </c>
       <c r="K4">
-        <v>1.04751731570784</v>
+        <v>1.049587454989105</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.049438612125458</v>
+        <v>1.057044257060522</v>
       </c>
       <c r="N4">
-        <v>1.041730409310424</v>
+        <v>1.045510812323581</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022424845011889</v>
+        <v>1.039741665229652</v>
       </c>
       <c r="D5">
-        <v>1.038664048078486</v>
+        <v>1.047314404946796</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.040785852958262</v>
+        <v>1.054837675447526</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050862137480942</v>
+        <v>1.040236522004472</v>
       </c>
       <c r="J5">
-        <v>1.040831624247669</v>
+        <v>1.044158807480756</v>
       </c>
       <c r="K5">
-        <v>1.048103716123272</v>
+        <v>1.049718929730291</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.050202839257267</v>
+        <v>1.057224159219025</v>
       </c>
       <c r="N5">
-        <v>1.042309724539157</v>
+        <v>1.045641632754068</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022599469118053</v>
+        <v>1.039779883836698</v>
       </c>
       <c r="D6">
-        <v>1.038799381025153</v>
+        <v>1.047345152171856</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.040951196753072</v>
+        <v>1.054876511362304</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050910426763687</v>
+        <v>1.040245030105271</v>
       </c>
       <c r="J6">
-        <v>1.040928351273442</v>
+        <v>1.044180739107755</v>
       </c>
       <c r="K6">
-        <v>1.048201761711047</v>
+        <v>1.049741001516936</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.050330681129025</v>
+        <v>1.057254369187096</v>
       </c>
       <c r="N6">
-        <v>1.042406588928401</v>
+        <v>1.045663595526493</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021394969922586</v>
+        <v>1.039517125125739</v>
       </c>
       <c r="D7">
-        <v>1.037866110184849</v>
+        <v>1.047133764120267</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.039811146222388</v>
+        <v>1.054609541841754</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050576638065618</v>
+        <v>1.040186450242483</v>
       </c>
       <c r="J7">
-        <v>1.040260887629738</v>
+        <v>1.044029918286966</v>
       </c>
       <c r="K7">
-        <v>1.047525179043381</v>
+        <v>1.049589211988024</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.049448855747014</v>
+        <v>1.057046660679382</v>
       </c>
       <c r="N7">
-        <v>1.041738177409764</v>
+        <v>1.045512560522839</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016264493817366</v>
+        <v>1.038419835116659</v>
       </c>
       <c r="D8">
-        <v>1.033896487356094</v>
+        <v>1.046251097233499</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.034966357707418</v>
+        <v>1.05349549838039</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049137347254072</v>
+        <v>1.039939693423301</v>
       </c>
       <c r="J8">
-        <v>1.037411192122192</v>
+        <v>1.04339915115698</v>
       </c>
       <c r="K8">
-        <v>1.044636079712447</v>
+        <v>1.048954273209874</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.04569263563491</v>
+        <v>1.056179005480303</v>
       </c>
       <c r="N8">
-        <v>1.038884435007733</v>
+        <v>1.044880897631178</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006837857380884</v>
+        <v>1.036490136885653</v>
       </c>
       <c r="D9">
-        <v>1.026626855034807</v>
+        <v>1.044699234376858</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.026109452553578</v>
+        <v>1.051539491520425</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046427725077289</v>
+        <v>1.039497749470177</v>
       </c>
       <c r="J9">
-        <v>1.032151442632923</v>
+        <v>1.042286378567435</v>
       </c>
       <c r="K9">
-        <v>1.039302212169883</v>
+        <v>1.047833692852569</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.038792663388621</v>
+        <v>1.05465219704054</v>
       </c>
       <c r="N9">
-        <v>1.033617216070887</v>
+        <v>1.04376654477692</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000268956413425</v>
+        <v>1.03520636403418</v>
       </c>
       <c r="D10">
-        <v>1.021580042534475</v>
+        <v>1.043667121159328</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.019969930778481</v>
+        <v>1.05024035829343</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044497516440996</v>
+        <v>1.039198368914179</v>
       </c>
       <c r="J10">
-        <v>1.02847190741451</v>
+        <v>1.041543740946479</v>
       </c>
       <c r="K10">
-        <v>1.035570295797584</v>
+        <v>1.047085547830724</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.033987746181546</v>
+        <v>1.053635837568564</v>
       </c>
       <c r="N10">
-        <v>1.029932455490416</v>
+        <v>1.04302285252536</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9973511169487461</v>
+        <v>1.034651134305342</v>
       </c>
       <c r="D11">
-        <v>1.019343436841096</v>
+        <v>1.043220810381921</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.017250981683803</v>
+        <v>1.049678998099634</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043630626965948</v>
+        <v>1.039067615398346</v>
       </c>
       <c r="J11">
-        <v>1.02683450926249</v>
+        <v>1.041221998512949</v>
       </c>
       <c r="K11">
-        <v>1.033909556883572</v>
+        <v>1.046761349995786</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.031854741165208</v>
+        <v>1.053196121224978</v>
       </c>
       <c r="N11">
-        <v>1.028292732045208</v>
+        <v>1.042700653180671</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9962557215002317</v>
+        <v>1.034444996826167</v>
       </c>
       <c r="D12">
-        <v>1.018504613567098</v>
+        <v>1.043055122739619</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.016231522735346</v>
+        <v>1.049470662059516</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043303796340211</v>
+        <v>1.039018880157711</v>
       </c>
       <c r="J12">
-        <v>1.026219395630838</v>
+        <v>1.041102463891326</v>
       </c>
       <c r="K12">
-        <v>1.033285678646515</v>
+        <v>1.046640892798331</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.03105422209512</v>
+        <v>1.053032848771688</v>
       </c>
       <c r="N12">
-        <v>1.027676744881644</v>
+        <v>1.042580948806173</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9964912206509488</v>
+        <v>1.034489209484817</v>
       </c>
       <c r="D13">
-        <v>1.018684913902398</v>
+        <v>1.043090659107681</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.016450638156964</v>
+        <v>1.049515342756207</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043374123786824</v>
+        <v>1.039029341604098</v>
       </c>
       <c r="J13">
-        <v>1.026351657019939</v>
+        <v>1.041128105592502</v>
       </c>
       <c r="K13">
-        <v>1.033419824290558</v>
+        <v>1.046666732870308</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.031226314196228</v>
+        <v>1.053067868627288</v>
       </c>
       <c r="N13">
-        <v>1.027809194097088</v>
+        <v>1.042606626921506</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.997260810705602</v>
+        <v>1.034634092876963</v>
       </c>
       <c r="D14">
-        <v>1.019274265671549</v>
+        <v>1.043207112701763</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.017166909682101</v>
+        <v>1.049661773332828</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043603710504046</v>
+        <v>1.039063590342517</v>
       </c>
       <c r="J14">
-        <v>1.026783806441446</v>
+        <v>1.041212118250062</v>
       </c>
       <c r="K14">
-        <v>1.033858131485454</v>
+        <v>1.046751393686816</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.031788739896168</v>
+        <v>1.053182623885302</v>
       </c>
       <c r="N14">
-        <v>1.028241957220342</v>
+        <v>1.042690758886677</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9977334292710843</v>
+        <v>1.034723373556194</v>
       </c>
       <c r="D15">
-        <v>1.019636307738181</v>
+        <v>1.043278875854697</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.017606953359429</v>
+        <v>1.049752017704458</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043744521662908</v>
+        <v>1.039084669936894</v>
       </c>
       <c r="J15">
-        <v>1.027049143512987</v>
+        <v>1.041263877923674</v>
       </c>
       <c r="K15">
-        <v>1.034127250135915</v>
+        <v>1.046803551319718</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.032134168180066</v>
+        <v>1.053253336090298</v>
       </c>
       <c r="N15">
-        <v>1.028507671100959</v>
+        <v>1.042742592064962</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000461010445781</v>
+        <v>1.035243226679956</v>
       </c>
       <c r="D16">
-        <v>1.021727369170766</v>
+        <v>1.043696754148765</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.02014906765006</v>
+        <v>1.050277638797226</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044554380656094</v>
+        <v>1.039207023059343</v>
       </c>
       <c r="J16">
-        <v>1.028579622721916</v>
+        <v>1.041565090338376</v>
       </c>
       <c r="K16">
-        <v>1.035679546616206</v>
+        <v>1.047107058698096</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.03412817261598</v>
+        <v>1.053665028109347</v>
       </c>
       <c r="N16">
-        <v>1.030040323765913</v>
+        <v>1.043044232235842</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.00215190911476</v>
+        <v>1.035569492565974</v>
       </c>
       <c r="D17">
-        <v>1.023025067247356</v>
+        <v>1.043959040318641</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.021727175657385</v>
+        <v>1.050607662419755</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045053950257868</v>
+        <v>1.039283472620222</v>
       </c>
       <c r="J17">
-        <v>1.029527643058201</v>
+        <v>1.041753986805597</v>
       </c>
       <c r="K17">
-        <v>1.036641078694416</v>
+        <v>1.047297375878033</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.035364679591506</v>
+        <v>1.053923372888378</v>
       </c>
       <c r="N17">
-        <v>1.030989690399815</v>
+        <v>1.043233396957714</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003131132083123</v>
+        <v>1.035759860779142</v>
       </c>
       <c r="D18">
-        <v>1.023777066659658</v>
+        <v>1.044112085279967</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.022641852841729</v>
+        <v>1.050800272672354</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045342351526395</v>
+        <v>1.039327956270203</v>
       </c>
       <c r="J18">
-        <v>1.030076368680397</v>
+        <v>1.041864149910714</v>
       </c>
       <c r="K18">
-        <v>1.037197621558167</v>
+        <v>1.047408360837407</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.036080877574413</v>
+        <v>1.054074097007932</v>
       </c>
       <c r="N18">
-        <v>1.031539195275334</v>
+        <v>1.043343716507076</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003463842022466</v>
+        <v>1.035824782032232</v>
       </c>
       <c r="D19">
-        <v>1.024032653526267</v>
+        <v>1.044164279420229</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.022952761927029</v>
+        <v>1.050865966909931</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045440186505223</v>
+        <v>1.039343105691816</v>
       </c>
       <c r="J19">
-        <v>1.030262759232306</v>
+        <v>1.041901709761213</v>
       </c>
       <c r="K19">
-        <v>1.037386666621304</v>
+        <v>1.04744619975899</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.036324238650527</v>
+        <v>1.054125496092429</v>
       </c>
       <c r="N19">
-        <v>1.031725850523206</v>
+        <v>1.04338132969687</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001971224684418</v>
+        <v>1.035534480812937</v>
       </c>
       <c r="D20">
-        <v>1.02288634843557</v>
+        <v>1.043930893495849</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.021558463236397</v>
+        <v>1.050572242300697</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045000661464841</v>
+        <v>1.039275281480818</v>
       </c>
       <c r="J20">
-        <v>1.029426369838462</v>
+        <v>1.041733721752937</v>
       </c>
       <c r="K20">
-        <v>1.036538362375691</v>
+        <v>1.047276959101509</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.035232537394791</v>
+        <v>1.053895651205447</v>
       </c>
       <c r="N20">
-        <v>1.030888273360488</v>
+        <v>1.043213103126355</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9970345098102525</v>
+        <v>1.034591425568193</v>
       </c>
       <c r="D21">
-        <v>1.019100941275015</v>
+        <v>1.043172817465691</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.016956251967058</v>
+        <v>1.049618648245247</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04353623756204</v>
+        <v>1.039053509562866</v>
       </c>
       <c r="J21">
-        <v>1.02665674232289</v>
+        <v>1.041187379301151</v>
       </c>
       <c r="K21">
-        <v>1.033729256636984</v>
+        <v>1.046726464161256</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.031623349514168</v>
+        <v>1.053148829714424</v>
       </c>
       <c r="N21">
-        <v>1.028114712656163</v>
+        <v>1.042665984805621</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9938633093322999</v>
+        <v>1.033999066120522</v>
       </c>
       <c r="D22">
-        <v>1.016674156855673</v>
+        <v>1.042696718429649</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.014007345726889</v>
+        <v>1.04902011735797</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042587470398681</v>
+        <v>1.038913103619848</v>
       </c>
       <c r="J22">
-        <v>1.024875231003793</v>
+        <v>1.040843727166638</v>
       </c>
       <c r="K22">
-        <v>1.031922377687589</v>
+        <v>1.046380140308796</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.029306329495817</v>
+        <v>1.052679608454633</v>
       </c>
       <c r="N22">
-        <v>1.026330671386651</v>
+        <v>1.042321844645659</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9955509914574591</v>
+        <v>1.034313031877853</v>
       </c>
       <c r="D23">
-        <v>1.017965191485402</v>
+        <v>1.042949056387624</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.015576010567798</v>
+        <v>1.049337311496263</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043093141429542</v>
+        <v>1.038987627106133</v>
       </c>
       <c r="J23">
-        <v>1.025823546419967</v>
+        <v>1.041025917003404</v>
       </c>
       <c r="K23">
-        <v>1.03288419119614</v>
+        <v>1.046563752216377</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.030539275963436</v>
+        <v>1.052928319234431</v>
       </c>
       <c r="N23">
-        <v>1.027280333519489</v>
+        <v>1.042504293212891</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00205288994722</v>
+        <v>1.035550300923078</v>
       </c>
       <c r="D24">
-        <v>1.022949044693815</v>
+        <v>1.043943611654897</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.021634715030337</v>
+        <v>1.050588246778766</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045024749602852</v>
+        <v>1.039278983038175</v>
       </c>
       <c r="J24">
-        <v>1.029472143925603</v>
+        <v>1.041742878710632</v>
       </c>
       <c r="K24">
-        <v>1.036584788735047</v>
+        <v>1.047286184637782</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.035292262302203</v>
+        <v>1.053908177329717</v>
       </c>
       <c r="N24">
-        <v>1.030934112452083</v>
+        <v>1.043222273087979</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00932309711341</v>
+        <v>1.036988542335745</v>
       </c>
       <c r="D25">
-        <v>1.028540343449591</v>
+        <v>1.045100001694747</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.028439053398121</v>
+        <v>1.052044315706372</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047149493252084</v>
+        <v>1.039612842986546</v>
       </c>
       <c r="J25">
-        <v>1.033540724532911</v>
+        <v>1.042574201304129</v>
       </c>
       <c r="K25">
-        <v>1.040711192853147</v>
+        <v>1.048123587710931</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.040611366711084</v>
+        <v>1.055046653827171</v>
       </c>
       <c r="N25">
-        <v>1.035008470910526</v>
+        <v>1.044054776254914</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_64/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_64/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03813760682279</v>
+        <v>1.014918364012821</v>
       </c>
       <c r="D2">
-        <v>1.04602409703005</v>
+        <v>1.032856453311889</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.053209174464579</v>
+        <v>1.033698104649662</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039875682886958</v>
+        <v>1.048755296441016</v>
       </c>
       <c r="J2">
-        <v>1.043236676341394</v>
+        <v>1.036661844509937</v>
       </c>
       <c r="K2">
-        <v>1.04879069325474</v>
+        <v>1.043876263962947</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.055955775347891</v>
+        <v>1.044707115410869</v>
       </c>
       <c r="N2">
-        <v>1.044718192082718</v>
+        <v>1.038134023235917</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038973020341599</v>
+        <v>1.018871343549197</v>
       </c>
       <c r="D3">
-        <v>1.046696062996965</v>
+        <v>1.035912360510478</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.054056963333636</v>
+        <v>1.03742581495497</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040064517245126</v>
+        <v>1.049872105777137</v>
       </c>
       <c r="J3">
-        <v>1.043717330985942</v>
+        <v>1.038860450614903</v>
       </c>
       <c r="K3">
-        <v>1.049274581296542</v>
+        <v>1.046105465426943</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.056616474188697</v>
+        <v>1.047601213815925</v>
       </c>
       <c r="N3">
-        <v>1.045199529311993</v>
+        <v>1.040335751613735</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039514084641176</v>
+        <v>1.021380978242086</v>
       </c>
       <c r="D4">
-        <v>1.047131318117771</v>
+        <v>1.037855272045661</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.054606453087061</v>
+        <v>1.039797909159776</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040185771225529</v>
+        <v>1.050572751109884</v>
       </c>
       <c r="J4">
-        <v>1.04402817256683</v>
+        <v>1.040253130546345</v>
       </c>
       <c r="K4">
-        <v>1.049587454989105</v>
+        <v>1.047517315707838</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.057044257060522</v>
+        <v>1.049438612125455</v>
       </c>
       <c r="N4">
-        <v>1.045510812323581</v>
+        <v>1.041730409310422</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039741665229652</v>
+        <v>1.02242484501189</v>
       </c>
       <c r="D5">
-        <v>1.047314404946796</v>
+        <v>1.038664048078487</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.054837675447526</v>
+        <v>1.040785852958263</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040236522004472</v>
+        <v>1.050862137480942</v>
       </c>
       <c r="J5">
-        <v>1.044158807480756</v>
+        <v>1.04083162424767</v>
       </c>
       <c r="K5">
-        <v>1.049718929730291</v>
+        <v>1.048103716123272</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.057224159219025</v>
+        <v>1.050202839257267</v>
       </c>
       <c r="N5">
-        <v>1.045641632754068</v>
+        <v>1.042309724539157</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039779883836698</v>
+        <v>1.022599469118052</v>
       </c>
       <c r="D6">
-        <v>1.047345152171856</v>
+        <v>1.038799381025153</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.054876511362304</v>
+        <v>1.040951196753072</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040245030105271</v>
+        <v>1.050910426763687</v>
       </c>
       <c r="J6">
-        <v>1.044180739107755</v>
+        <v>1.040928351273442</v>
       </c>
       <c r="K6">
-        <v>1.049741001516936</v>
+        <v>1.048201761711047</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.057254369187096</v>
+        <v>1.050330681129026</v>
       </c>
       <c r="N6">
-        <v>1.045663595526493</v>
+        <v>1.042406588928402</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039517125125739</v>
+        <v>1.021394969922586</v>
       </c>
       <c r="D7">
-        <v>1.047133764120267</v>
+        <v>1.037866110184848</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.054609541841754</v>
+        <v>1.039811146222388</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040186450242483</v>
+        <v>1.050576638065618</v>
       </c>
       <c r="J7">
-        <v>1.044029918286966</v>
+        <v>1.040260887629738</v>
       </c>
       <c r="K7">
-        <v>1.049589211988024</v>
+        <v>1.047525179043381</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.057046660679382</v>
+        <v>1.049448855747014</v>
       </c>
       <c r="N7">
-        <v>1.045512560522839</v>
+        <v>1.041738177409764</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038419835116659</v>
+        <v>1.016264493817366</v>
       </c>
       <c r="D8">
-        <v>1.046251097233499</v>
+        <v>1.033896487356094</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.05349549838039</v>
+        <v>1.034966357707418</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039939693423301</v>
+        <v>1.049137347254072</v>
       </c>
       <c r="J8">
-        <v>1.04339915115698</v>
+        <v>1.037411192122192</v>
       </c>
       <c r="K8">
-        <v>1.048954273209874</v>
+        <v>1.044636079712447</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.056179005480303</v>
+        <v>1.045692635634909</v>
       </c>
       <c r="N8">
-        <v>1.044880897631178</v>
+        <v>1.038884435007732</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036490136885653</v>
+        <v>1.006837857380884</v>
       </c>
       <c r="D9">
-        <v>1.044699234376858</v>
+        <v>1.026626855034807</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.051539491520425</v>
+        <v>1.026109452553578</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039497749470177</v>
+        <v>1.046427725077289</v>
       </c>
       <c r="J9">
-        <v>1.042286378567435</v>
+        <v>1.032151442632923</v>
       </c>
       <c r="K9">
-        <v>1.047833692852569</v>
+        <v>1.039302212169882</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.05465219704054</v>
+        <v>1.03879266338862</v>
       </c>
       <c r="N9">
-        <v>1.04376654477692</v>
+        <v>1.033617216070887</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03520636403418</v>
+        <v>1.000268956413424</v>
       </c>
       <c r="D10">
-        <v>1.043667121159328</v>
+        <v>1.021580042534474</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.05024035829343</v>
+        <v>1.019969930778481</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039198368914179</v>
+        <v>1.044497516440996</v>
       </c>
       <c r="J10">
-        <v>1.041543740946479</v>
+        <v>1.028471907414509</v>
       </c>
       <c r="K10">
-        <v>1.047085547830724</v>
+        <v>1.035570295797583</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.053635837568564</v>
+        <v>1.033987746181545</v>
       </c>
       <c r="N10">
-        <v>1.04302285252536</v>
+        <v>1.029932455490415</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034651134305342</v>
+        <v>0.9973511169487456</v>
       </c>
       <c r="D11">
-        <v>1.043220810381921</v>
+        <v>1.019343436841095</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.049678998099634</v>
+        <v>1.017250981683803</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039067615398346</v>
+        <v>1.043630626965948</v>
       </c>
       <c r="J11">
-        <v>1.041221998512949</v>
+        <v>1.02683450926249</v>
       </c>
       <c r="K11">
-        <v>1.046761349995786</v>
+        <v>1.033909556883572</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.053196121224978</v>
+        <v>1.031854741165208</v>
       </c>
       <c r="N11">
-        <v>1.042700653180671</v>
+        <v>1.028292732045207</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034444996826167</v>
+        <v>0.996255721500232</v>
       </c>
       <c r="D12">
-        <v>1.043055122739619</v>
+        <v>1.018504613567098</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.049470662059516</v>
+        <v>1.016231522735346</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039018880157711</v>
+        <v>1.043303796340211</v>
       </c>
       <c r="J12">
-        <v>1.041102463891326</v>
+        <v>1.026219395630838</v>
       </c>
       <c r="K12">
-        <v>1.046640892798331</v>
+        <v>1.033285678646515</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.053032848771688</v>
+        <v>1.03105422209512</v>
       </c>
       <c r="N12">
-        <v>1.042580948806173</v>
+        <v>1.027676744881644</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034489209484817</v>
+        <v>0.996491220650948</v>
       </c>
       <c r="D13">
-        <v>1.043090659107681</v>
+        <v>1.018684913902398</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.049515342756207</v>
+        <v>1.016450638156963</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039029341604098</v>
+        <v>1.043374123786824</v>
       </c>
       <c r="J13">
-        <v>1.041128105592502</v>
+        <v>1.026351657019938</v>
       </c>
       <c r="K13">
-        <v>1.046666732870308</v>
+        <v>1.033419824290558</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.053067868627288</v>
+        <v>1.031226314196228</v>
       </c>
       <c r="N13">
-        <v>1.042606626921506</v>
+        <v>1.027809194097087</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034634092876963</v>
+        <v>0.9972608107056017</v>
       </c>
       <c r="D14">
-        <v>1.043207112701763</v>
+        <v>1.019274265671549</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.049661773332828</v>
+        <v>1.017166909682101</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039063590342517</v>
+        <v>1.043603710504046</v>
       </c>
       <c r="J14">
-        <v>1.041212118250062</v>
+        <v>1.026783806441446</v>
       </c>
       <c r="K14">
-        <v>1.046751393686816</v>
+        <v>1.033858131485454</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.053182623885302</v>
+        <v>1.031788739896168</v>
       </c>
       <c r="N14">
-        <v>1.042690758886677</v>
+        <v>1.028241957220341</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034723373556194</v>
+        <v>0.9977334292710842</v>
       </c>
       <c r="D15">
-        <v>1.043278875854697</v>
+        <v>1.019636307738181</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.049752017704458</v>
+        <v>1.017606953359429</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039084669936894</v>
+        <v>1.043744521662908</v>
       </c>
       <c r="J15">
-        <v>1.041263877923674</v>
+        <v>1.027049143512988</v>
       </c>
       <c r="K15">
-        <v>1.046803551319718</v>
+        <v>1.034127250135916</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.053253336090298</v>
+        <v>1.032134168180066</v>
       </c>
       <c r="N15">
-        <v>1.042742592064962</v>
+        <v>1.028507671100959</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035243226679956</v>
+        <v>1.00046101044578</v>
       </c>
       <c r="D16">
-        <v>1.043696754148765</v>
+        <v>1.021727369170765</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.050277638797226</v>
+        <v>1.02014906765006</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039207023059343</v>
+        <v>1.044554380656094</v>
       </c>
       <c r="J16">
-        <v>1.041565090338376</v>
+        <v>1.028579622721915</v>
       </c>
       <c r="K16">
-        <v>1.047107058698096</v>
+        <v>1.035679546616206</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.053665028109347</v>
+        <v>1.03412817261598</v>
       </c>
       <c r="N16">
-        <v>1.043044232235842</v>
+        <v>1.030040323765912</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035569492565974</v>
+        <v>1.00215190911476</v>
       </c>
       <c r="D17">
-        <v>1.043959040318641</v>
+        <v>1.023025067247355</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.050607662419755</v>
+        <v>1.021727175657385</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039283472620222</v>
+        <v>1.045053950257868</v>
       </c>
       <c r="J17">
-        <v>1.041753986805597</v>
+        <v>1.029527643058201</v>
       </c>
       <c r="K17">
-        <v>1.047297375878033</v>
+        <v>1.036641078694416</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.053923372888378</v>
+        <v>1.035364679591506</v>
       </c>
       <c r="N17">
-        <v>1.043233396957714</v>
+        <v>1.030989690399815</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035759860779142</v>
+        <v>1.003131132083124</v>
       </c>
       <c r="D18">
-        <v>1.044112085279967</v>
+        <v>1.023777066659659</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.050800272672354</v>
+        <v>1.022641852841728</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039327956270203</v>
+        <v>1.045342351526395</v>
       </c>
       <c r="J18">
-        <v>1.041864149910714</v>
+        <v>1.030076368680398</v>
       </c>
       <c r="K18">
-        <v>1.047408360837407</v>
+        <v>1.037197621558167</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.054074097007932</v>
+        <v>1.036080877574413</v>
       </c>
       <c r="N18">
-        <v>1.043343716507076</v>
+        <v>1.031539195275334</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035824782032232</v>
+        <v>1.003463842022466</v>
       </c>
       <c r="D19">
-        <v>1.044164279420229</v>
+        <v>1.024032653526266</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.050865966909931</v>
+        <v>1.022952761927028</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039343105691816</v>
+        <v>1.045440186505223</v>
       </c>
       <c r="J19">
-        <v>1.041901709761213</v>
+        <v>1.030262759232305</v>
       </c>
       <c r="K19">
-        <v>1.04744619975899</v>
+        <v>1.037386666621303</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.054125496092429</v>
+        <v>1.036324238650526</v>
       </c>
       <c r="N19">
-        <v>1.04338132969687</v>
+        <v>1.031725850523205</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035534480812937</v>
+        <v>1.001971224684417</v>
       </c>
       <c r="D20">
-        <v>1.043930893495849</v>
+        <v>1.02288634843557</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.050572242300697</v>
+        <v>1.021558463236396</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039275281480818</v>
+        <v>1.04500066146484</v>
       </c>
       <c r="J20">
-        <v>1.041733721752937</v>
+        <v>1.029426369838462</v>
       </c>
       <c r="K20">
-        <v>1.047276959101509</v>
+        <v>1.03653836237569</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.053895651205447</v>
+        <v>1.03523253739479</v>
       </c>
       <c r="N20">
-        <v>1.043213103126355</v>
+        <v>1.030888273360487</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034591425568193</v>
+        <v>0.9970345098102535</v>
       </c>
       <c r="D21">
-        <v>1.043172817465691</v>
+        <v>1.019100941275016</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.049618648245247</v>
+        <v>1.016956251967059</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039053509562866</v>
+        <v>1.04353623756204</v>
       </c>
       <c r="J21">
-        <v>1.041187379301151</v>
+        <v>1.026656742322891</v>
       </c>
       <c r="K21">
-        <v>1.046726464161256</v>
+        <v>1.033729256636985</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.053148829714424</v>
+        <v>1.031623349514169</v>
       </c>
       <c r="N21">
-        <v>1.042665984805621</v>
+        <v>1.028114712656164</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033999066120522</v>
+        <v>0.9938633093322995</v>
       </c>
       <c r="D22">
-        <v>1.042696718429649</v>
+        <v>1.016674156855672</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.04902011735797</v>
+        <v>1.014007345726888</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038913103619848</v>
+        <v>1.04258747039868</v>
       </c>
       <c r="J22">
-        <v>1.040843727166638</v>
+        <v>1.024875231003793</v>
       </c>
       <c r="K22">
-        <v>1.046380140308796</v>
+        <v>1.031922377687589</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.052679608454633</v>
+        <v>1.029306329495817</v>
       </c>
       <c r="N22">
-        <v>1.042321844645659</v>
+        <v>1.02633067138665</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034313031877853</v>
+        <v>0.9955509914574592</v>
       </c>
       <c r="D23">
-        <v>1.042949056387624</v>
+        <v>1.017965191485402</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.049337311496263</v>
+        <v>1.015576010567798</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038987627106133</v>
+        <v>1.043093141429542</v>
       </c>
       <c r="J23">
-        <v>1.041025917003404</v>
+        <v>1.025823546419967</v>
       </c>
       <c r="K23">
-        <v>1.046563752216377</v>
+        <v>1.03288419119614</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.052928319234431</v>
+        <v>1.030539275963436</v>
       </c>
       <c r="N23">
-        <v>1.042504293212891</v>
+        <v>1.027280333519489</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035550300923078</v>
+        <v>1.002052889947219</v>
       </c>
       <c r="D24">
-        <v>1.043943611654897</v>
+        <v>1.022949044693815</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.050588246778766</v>
+        <v>1.021634715030336</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039278983038175</v>
+        <v>1.045024749602852</v>
       </c>
       <c r="J24">
-        <v>1.041742878710632</v>
+        <v>1.029472143925602</v>
       </c>
       <c r="K24">
-        <v>1.047286184637782</v>
+        <v>1.036584788735047</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.053908177329717</v>
+        <v>1.035292262302202</v>
       </c>
       <c r="N24">
-        <v>1.043222273087979</v>
+        <v>1.030934112452082</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036988542335745</v>
+        <v>1.00932309711341</v>
       </c>
       <c r="D25">
-        <v>1.045100001694747</v>
+        <v>1.028540343449591</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.052044315706372</v>
+        <v>1.02843905339812</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039612842986546</v>
+        <v>1.047149493252084</v>
       </c>
       <c r="J25">
-        <v>1.042574201304129</v>
+        <v>1.033540724532911</v>
       </c>
       <c r="K25">
-        <v>1.048123587710931</v>
+        <v>1.040711192853146</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.055046653827171</v>
+        <v>1.040611366711083</v>
       </c>
       <c r="N25">
-        <v>1.044054776254914</v>
+        <v>1.035008470910526</v>
       </c>
     </row>
   </sheetData>
